--- a/medicine/Sexualité et sexologie/Dr_Kinsey/Dr_Kinsey.xlsx
+++ b/medicine/Sexualité et sexologie/Dr_Kinsey/Dr_Kinsey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dr Kinsey (Kinsey) est un film biographique germano-américain écrit et réalisé par Bill Condon, sorti en 2004.
 Il décrit la vie et le travail d'Alfred Kinsey (joué par Liam Neeson). Pionnier de la recherche en matière de sexologie, il est connu pour son livre publié en 1948, Sexual Behavior in the Human Male (le premier des Rapports Kinsey), qui fut l'un des premiers ouvrages essayant de traiter scientifiquement du comportement sexuel et de ses conséquences chez les humains. 
-Les autres personnages majeurs du film sont interprétés par Laura Linney (nommée pour ce film à l'Oscar de la meilleure actrice dans un second rôle), Peter Sarsgaard et Chris O'Donnell. Dr Kinsey fut nommé pour 40 prix [1], remportant 19 d'entre eux.
+Les autres personnages majeurs du film sont interprétés par Laura Linney (nommée pour ce film à l'Oscar de la meilleure actrice dans un second rôle), Peter Sarsgaard et Chris O'Donnell. Dr Kinsey fut nommé pour 40 prix , remportant 19 d'entre eux.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au milieu des années 1940, Alfred Kinsey, docteur en biologie enseignant à l'université d'Indiana, décide de remplir un questionnaire sur la sexualité conçu par ses étudiants. Il se remémore alors son enfance, ses relations difficiles avec son père, pasteur, et aussi celles avec Clara qui deviendra son épouse. Dès lors, délaissant la zoologie, il se consacre à l'étude des habitudes sexuelles masculines des Américains. En 1948, aux Etats-Unis, Alfred Kinsey publie un rapport historique sur les habitudes sexuelles de ses compatriotes. Ce document fait l'effet d'une bombe. Pour la première fois, le comportement sexuel humain fait l'objet d'une étude scientifique. Son travail déchaîna les passions et déclencha des polémiques qui font encore rage aujourd'hui.
 </t>
@@ -545,7 +559,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Kinsey
 Titre français : Docteur Kinsey / Dr Kinsey, sous-titré Parlons sexe !
@@ -602,9 +618,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Légende : VF = Version Française [2] et VQ = Version Québécoise[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Légende : VF = Version Française  et VQ = Version Québécoise
 Liam Neeson (VF : Philippe Crubezy et VQ : Jean-Luc Montminy) : Alfred Kinsey
 Laura Linney (VF : Danièle Douet et VQ : Valérie Gagné) : Clara McMillen
 Chris O'Donnell (VF : Laurent Natrella et VQ : Gilbert Lachance) : Wardell Pomeroy
@@ -666,7 +684,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Début de tournage : 28 juillet 2003
 Fin de tournage : 2004</t>
@@ -699,12 +719,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Accueil critique
-Dr Kinsey rencontra un succès critique aux États-Unis; le site agrégateur Rotten Tomatoes donne un score de 90 % basé sur 192 critiques[4]. Sur Metacritic, le film a obtenu un score de 79 %, indiquant des « critiques généralement favorables[5]. »
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dr Kinsey rencontra un succès critique aux États-Unis; le site agrégateur Rotten Tomatoes donne un score de 90 % basé sur 192 critiques. Sur Metacritic, le film a obtenu un score de 79 %, indiquant des « critiques généralement favorables. »
 Christian Jauberty du journal Premiere : « La construction du film est élégante, pleine de jolie idées de mise en scène et de montage. Le résultat est sobre mais pas austère, éducatif sans être pédant, excitant mais jamais graveleux. »
 Bruno Bayon du journal Libération : « Qu'attendre d'un film 2005 sur un Rapport sexuel de 1948 signé Condon (sic) et débattant coït, onanisme, vagin, etc. Cassage de couilles en vue. Oui  mais non. Grâce à Liam Neeson. Prestance (...), tempes rasées sous brosse ananas, Neeson en routard du genre épique (Schindler, Michael Collins, Rob Roy) compose un Kinsey plus Beckett que nature (prochain rôle ?), démultiplié en variables ado et vermeil crédibles. »
-Jean-Luc Douin du journal Le Monde : « Cette plongée dans une Amérique qui déguise la morale en statistiques et reste obnubilée par la délinquance sexuelle autant que par le racisme s'avère plus passionnante que son traitement cinématographique. De facture assez lourde (...) Dr Kinsey fige les protagonistes dans ce que la biographie à l'hollywoodienne produit de plus académique.»[6]
-Box-office</t>
+Jean-Luc Douin du journal Le Monde : « Cette plongée dans une Amérique qui déguise la morale en statistiques et reste obnubilée par la délinquance sexuelle autant que par le racisme s'avère plus passionnante que son traitement cinématographique. De facture assez lourde (...) Dr Kinsey fige les protagonistes dans ce que la biographie à l'hollywoodienne produit de plus académique.»
+</t>
         </is>
       </c>
     </row>
@@ -732,11 +757,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Cette section récapitule les principales récompenses et nominations obtenues par le film. Pour une liste plus complète, se référer à l'Internet Movie Database[7].
-Récompenses
-Nominations</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette section récapitule les principales récompenses et nominations obtenues par le film. Pour une liste plus complète, se référer à l'Internet Movie Database.
+</t>
         </is>
       </c>
     </row>
@@ -764,7 +790,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Le père de Laura Linney (Clara, la femme du docteur Kinsey dans le film), Romulus joue dans le film.
 The Kinsey Report: Sex on Film est un documentaire américain de Keith Clark qui est le making off du film Dr Kinsey. Ce making-off figure dans le DVD du film.</t>
